--- a/final/2015final.xlsx
+++ b/final/2015final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio Freller\Desktop\ScraperDiario\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio Freller\OneDrive\Área de Trabalho\ScraperDiario\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D9E9E-46D8-4ECC-9579-D5EBCC89EAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7052720A-A68C-4FE3-BC1A-260FC503356D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4345,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="A788" sqref="A788:A789"/>
+    <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
+      <selection activeCell="D766" sqref="D766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19093,10 +19093,10 @@
       <c r="B765" t="s">
         <v>989</v>
       </c>
-      <c r="C765" s="2" t="s">
+      <c r="C765" t="s">
         <v>1259</v>
       </c>
-      <c r="E765" s="2" t="s">
+      <c r="E765" t="s">
         <v>1260</v>
       </c>
       <c r="F765" t="s">
@@ -19117,7 +19117,7 @@
       <c r="C766" t="s">
         <v>1261</v>
       </c>
-      <c r="E766" s="2" t="s">
+      <c r="E766" t="s">
         <v>1264</v>
       </c>
       <c r="F766" t="s">
@@ -19138,7 +19138,7 @@
       <c r="C767" t="s">
         <v>1262</v>
       </c>
-      <c r="E767" s="2" t="s">
+      <c r="E767" t="s">
         <v>1265</v>
       </c>
       <c r="F767" t="s">
@@ -19159,7 +19159,7 @@
       <c r="C768" t="s">
         <v>1263</v>
       </c>
-      <c r="E768" s="2" t="s">
+      <c r="E768" t="s">
         <v>1266</v>
       </c>
       <c r="F768" t="s">
@@ -19180,7 +19180,7 @@
       <c r="C769" t="s">
         <v>1268</v>
       </c>
-      <c r="E769" s="2" t="s">
+      <c r="E769" t="s">
         <v>1267</v>
       </c>
       <c r="F769" t="s">
@@ -19201,7 +19201,7 @@
       <c r="C770" t="s">
         <v>1270</v>
       </c>
-      <c r="E770" s="2" t="s">
+      <c r="E770" t="s">
         <v>1271</v>
       </c>
       <c r="F770" t="s">
@@ -19222,7 +19222,7 @@
       <c r="C771" t="s">
         <v>1269</v>
       </c>
-      <c r="E771" s="2" t="s">
+      <c r="E771" t="s">
         <v>1272</v>
       </c>
       <c r="F771" t="s">
@@ -19243,7 +19243,7 @@
       <c r="C772" t="s">
         <v>1274</v>
       </c>
-      <c r="E772" s="2" t="s">
+      <c r="E772" t="s">
         <v>1273</v>
       </c>
       <c r="F772" t="s">
@@ -19264,7 +19264,7 @@
       <c r="C773" t="s">
         <v>1277</v>
       </c>
-      <c r="E773" s="2" t="s">
+      <c r="E773" t="s">
         <v>1276</v>
       </c>
       <c r="F773" t="s">
@@ -19285,7 +19285,7 @@
       <c r="C774" t="s">
         <v>1278</v>
       </c>
-      <c r="E774" s="2" t="s">
+      <c r="E774" t="s">
         <v>1282</v>
       </c>
       <c r="F774" t="s">
@@ -19306,7 +19306,7 @@
       <c r="C775" t="s">
         <v>1279</v>
       </c>
-      <c r="E775" s="2" t="s">
+      <c r="E775" t="s">
         <v>1283</v>
       </c>
       <c r="F775" t="s">
@@ -19327,7 +19327,7 @@
       <c r="C776" t="s">
         <v>1285</v>
       </c>
-      <c r="E776" s="2" t="s">
+      <c r="E776" t="s">
         <v>1284</v>
       </c>
       <c r="F776" t="s">
@@ -19348,7 +19348,7 @@
       <c r="C777" t="s">
         <v>1287</v>
       </c>
-      <c r="E777" s="2" t="s">
+      <c r="E777" t="s">
         <v>1289</v>
       </c>
       <c r="F777" t="s">
@@ -19369,7 +19369,7 @@
       <c r="C778" t="s">
         <v>1286</v>
       </c>
-      <c r="E778" s="2" t="s">
+      <c r="E778" t="s">
         <v>1288</v>
       </c>
       <c r="F778" t="s">
@@ -19387,10 +19387,10 @@
       <c r="B779" t="s">
         <v>515</v>
       </c>
-      <c r="C779" s="2" t="s">
+      <c r="C779" t="s">
         <v>1290</v>
       </c>
-      <c r="E779" s="2" t="s">
+      <c r="E779" t="s">
         <v>1293</v>
       </c>
       <c r="F779" t="s">
@@ -19411,7 +19411,7 @@
       <c r="C780" t="s">
         <v>1291</v>
       </c>
-      <c r="E780" s="2" t="s">
+      <c r="E780" t="s">
         <v>1292</v>
       </c>
       <c r="F780" t="s">
@@ -19432,7 +19432,7 @@
       <c r="C781" t="s">
         <v>1294</v>
       </c>
-      <c r="E781" s="2" t="s">
+      <c r="E781" t="s">
         <v>1295</v>
       </c>
       <c r="F781" t="s">
@@ -19453,7 +19453,7 @@
       <c r="C782" t="s">
         <v>1297</v>
       </c>
-      <c r="E782" s="2" t="s">
+      <c r="E782" t="s">
         <v>1299</v>
       </c>
       <c r="F782" t="s">
@@ -19474,7 +19474,7 @@
       <c r="C783" t="s">
         <v>1197</v>
       </c>
-      <c r="E783" s="2" t="s">
+      <c r="E783" t="s">
         <v>1300</v>
       </c>
       <c r="F783" t="s">
@@ -19495,7 +19495,7 @@
       <c r="C784" t="s">
         <v>1301</v>
       </c>
-      <c r="E784" s="2" t="s">
+      <c r="E784" t="s">
         <v>1304</v>
       </c>
       <c r="F784" t="s">
@@ -19516,7 +19516,7 @@
       <c r="C785" t="s">
         <v>1302</v>
       </c>
-      <c r="E785" s="2" t="s">
+      <c r="E785" t="s">
         <v>1303</v>
       </c>
       <c r="F785" t="s">
@@ -19537,7 +19537,7 @@
       <c r="C786" t="s">
         <v>1306</v>
       </c>
-      <c r="E786" s="2" t="s">
+      <c r="E786" t="s">
         <v>1310</v>
       </c>
       <c r="F786" t="s">
@@ -19558,7 +19558,7 @@
       <c r="C787" t="s">
         <v>1307</v>
       </c>
-      <c r="E787" s="2" t="s">
+      <c r="E787" t="s">
         <v>1311</v>
       </c>
       <c r="F787" t="s">
@@ -19579,7 +19579,7 @@
       <c r="C788" t="s">
         <v>1308</v>
       </c>
-      <c r="E788" s="2" t="s">
+      <c r="E788" t="s">
         <v>1312</v>
       </c>
       <c r="F788" t="s">
@@ -19601,7 +19601,7 @@
       <c r="C789" t="s">
         <v>1309</v>
       </c>
-      <c r="E789" s="2" t="s">
+      <c r="E789" t="s">
         <v>1313</v>
       </c>
       <c r="F789" t="s">
